--- a/mmo_excel/xlsx/heroLv.xlsx
+++ b/mmo_excel/xlsx/heroLv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A62A0-ECAD-4976-A58F-5A6AAFFDDBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA570AF3-4EA6-4788-BB72-FF1F6F81F413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="1245" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13230" yWindow="2280" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,46 @@
   </si>
   <si>
     <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">血量 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>armor_m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,8 +446,23 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -420,8 +475,23 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -434,8 +504,23 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -448,10 +533,25 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -462,10 +562,25 @@
       <c r="D5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -476,10 +591,25 @@
       <c r="D6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -490,10 +620,25 @@
       <c r="D7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -504,10 +649,25 @@
       <c r="D8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -518,10 +678,25 @@
       <c r="D9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -532,10 +707,25 @@
       <c r="D10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -546,10 +736,25 @@
       <c r="D11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -560,10 +765,25 @@
       <c r="D12">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>17</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -574,10 +794,25 @@
       <c r="D13">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -587,10 +822,26 @@
       </c>
       <c r="D14">
         <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>